--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bank-NXT\Projects\IPN Settlement\bmb-Bank-Nxt_IPN-Settlement\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDCA63E-AF01-4E6D-9EDD-9385B7020746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7223893-9C22-41C1-9C9C-E1F2A4579166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>IPNSummaryFiles\Failed</t>
+  </si>
+  <si>
+    <t>ReportEmailCCReceivers</t>
+  </si>
+  <si>
+    <t>ReportEmailReceivers</t>
+  </si>
+  <si>
+    <t>IPNSettlement_EmailCCReceivers</t>
+  </si>
+  <si>
+    <t>IPNSettlement_EmailReceivers</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2934,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3025,8 +3037,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
